--- a/测试问题/问题单-2017-04-26.xlsx
+++ b/测试问题/问题单-2017-04-26.xlsx
@@ -16,17 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="77">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>问题描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -260,22 +256,6 @@
   </si>
   <si>
     <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、用户增加：如果增加失败，比如部门信息没有填写，则整个新增用户界面会关掉，应当给出提示错误信息，并且保持在原来的界面。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>9</t>
     </r>
     <r>
@@ -301,21 +281,6 @@
   <si>
     <t>1、新增商品类型：新增商品类型界面不能移动</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、新增商品类型：格式不整齐，按钮“上传”，应改为“确定”</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1180,7 +1145,7 @@
   </si>
   <si>
     <r>
-      <t>1.</t>
+      <t>2.</t>
     </r>
     <r>
       <rPr>
@@ -1199,6 +1164,170 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>拓扑图显示乱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建议改成中文</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪个用户权限可以看到密码待确认！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前的弹窗就这种模式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分界面字符折行，没有对齐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统用户，我认为可以显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王远斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王远斌调查下！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周源调查下！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该功能缺失，还不具备调试条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蒋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、用户增加：如果增加失败，比如部门信息没有填写，则整个新增用户界面会关掉，应当给出提示错误信息，并且保持在原来的界面。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>增加部门</t>
     </r>
     <r>
@@ -1296,54 +1425,21 @@
       </rPr>
       <t>，提示：</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拓扑图显示乱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>建议改成中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、新增商品类型：格式不整齐，按钮“上传”，应改为“确定”</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1364,97 +1460,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人考虑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人考虑理由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哪个用户权限可以看到密码待确认！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采纳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前的弹窗就这种模式。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部分界面字符折行，没有对齐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统用户，我认为可以显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王远斌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王远斌调查下！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周源调查下！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该功能缺失，还不具备调试条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小蒋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采纳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采纳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采纳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先对应</t>
+    <t>未重现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1462,7 +1472,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1514,20 +1524,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1605,7 +1601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1622,12 +1618,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1635,14 +1625,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1652,20 +1656,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1968,23 +1958,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="76.08984375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="76.08984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1992,649 +1982,696 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="20"/>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="20"/>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="20"/>
+      <c r="B5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="20"/>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="17"/>
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="17"/>
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="17"/>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="17"/>
+      <c r="B12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="17"/>
+      <c r="B13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="17"/>
+      <c r="B14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.45">
+      <c r="A15" s="17"/>
+      <c r="B15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="17"/>
+      <c r="B16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="16"/>
-      <c r="B3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="16"/>
-      <c r="B4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="16"/>
-      <c r="B6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.45">
-      <c r="A15" s="11"/>
-      <c r="B15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="16"/>
+      <c r="B19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="16"/>
+      <c r="B20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="17"/>
-      <c r="B19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="17"/>
-      <c r="B20" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>71</v>
-      </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="1" t="s">
-        <v>64</v>
+      <c r="E20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="17"/>
+      <c r="B23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28" x14ac:dyDescent="0.45">
+      <c r="A24" s="17"/>
+      <c r="B24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="17"/>
+      <c r="B25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="17"/>
+      <c r="B26" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="17"/>
+      <c r="B27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="17"/>
+      <c r="B28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="17"/>
+      <c r="B29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="17"/>
+      <c r="B30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28" x14ac:dyDescent="0.45">
+      <c r="A31" s="17"/>
+      <c r="B31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="17"/>
+      <c r="B32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="17"/>
+      <c r="B33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="17"/>
+      <c r="B34" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="17"/>
+      <c r="B37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="11"/>
-      <c r="B23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="F23" s="1" t="s">
+      <c r="D38" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="17"/>
+      <c r="B40" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="17"/>
+      <c r="B41" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="17"/>
+      <c r="B42" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="17"/>
+      <c r="B45" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="17"/>
+      <c r="B46" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="17"/>
+      <c r="B49" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28" x14ac:dyDescent="0.45">
-      <c r="A24" s="11"/>
-      <c r="B24" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="F24" s="1" t="s">
+    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="17"/>
+      <c r="B52" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="11"/>
-      <c r="B25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="11"/>
-      <c r="B26" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="1" t="s">
+    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="18"/>
+      <c r="B53" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="11"/>
-      <c r="B27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="11"/>
-      <c r="B28" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="1" t="s">
+    <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="14"/>
+      <c r="C57" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="11"/>
-      <c r="B29" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="11"/>
-      <c r="B30" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28" x14ac:dyDescent="0.45">
-      <c r="A31" s="11"/>
-      <c r="B31" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="11"/>
-      <c r="B32" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="11"/>
-      <c r="B33" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="11"/>
-      <c r="B34" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="B37" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="11"/>
-      <c r="B40" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="11"/>
-      <c r="B41" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="11"/>
-      <c r="B42" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="11"/>
-      <c r="B45" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="11"/>
-      <c r="B46" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="11"/>
-      <c r="B49" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="11"/>
-      <c r="B52" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A53" s="14"/>
-      <c r="B53" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="21"/>
-      <c r="C57" s="22" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
